--- a/excel_files/9.5.1.xlsx
+++ b/excel_files/9.5.1.xlsx
@@ -14,16 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
-  <si>
-    <t>9.5.1 ИДП га болгон тажрыйбалык-конструктордук жумуштун жана илимий изилдөөнүн чыгымдарынын үлүшү*</t>
-  </si>
-  <si>
-    <t>9.5.1  Доля расходов на научно-исследовательские и опытно-конструкторские работы в ВВП*</t>
-  </si>
-  <si>
-    <t>9.5.1 Research and development expenditure as a proportion of GDP*</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>(пайыз менен)</t>
   </si>
@@ -52,13 +43,25 @@
     <t>Research and development expenditure as a proportion of GDP</t>
   </si>
   <si>
-    <t>*КР ФМ маалыматтары боюнча</t>
-  </si>
-  <si>
-    <t>*по данным МФ КР</t>
-  </si>
-  <si>
-    <t>* according to the MF KR</t>
+    <t>*предварительные данные</t>
+  </si>
+  <si>
+    <t>2021*</t>
+  </si>
+  <si>
+    <t>*алдын алаа маалыматтар</t>
+  </si>
+  <si>
+    <t>*preliminary data</t>
+  </si>
+  <si>
+    <t>9.5.1 ИДП га болгон тажрыйбалык-конструктордук жумуштун жана илимий изилдөөнүн чыгымдарынын үлүшү</t>
+  </si>
+  <si>
+    <t>9.5.1  Доля расходов на научно-исследовательские и опытно-конструкторские работы в ВВП</t>
+  </si>
+  <si>
+    <t>9.5.1 Research and development expenditure as a proportion of GDP</t>
   </si>
 </sst>
 </file>
@@ -143,7 +146,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="11">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -167,6 +170,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -472,11 +478,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:N8"/>
+  <dimension ref="A1:H8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -485,51 +489,33 @@
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:14" ht="38.25" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>1</v>
+        <v>14</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
-      <c r="K1" s="2"/>
-      <c r="L1" s="2"/>
-      <c r="M1" s="2"/>
-      <c r="N1" s="2"/>
-    </row>
-    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="B2" s="3" t="s">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
-      <c r="F2" s="2"/>
-      <c r="G2" s="2"/>
-      <c r="H2" s="2"/>
-      <c r="I2" s="2"/>
-      <c r="J2" s="2"/>
-      <c r="K2" s="2"/>
-      <c r="L2" s="2"/>
-      <c r="M2" s="2"/>
-      <c r="N2" s="2"/>
-    </row>
-    <row r="3" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -538,154 +524,85 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
-      <c r="I3" s="4"/>
-      <c r="J3" s="4"/>
-      <c r="K3" s="4"/>
-      <c r="L3" s="4"/>
-      <c r="M3" s="4"/>
-      <c r="N3" s="4"/>
-    </row>
-    <row r="4" spans="1:14" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="D4" s="6">
+        <v>2017</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2018</v>
+      </c>
+      <c r="F4" s="6">
+        <v>2019</v>
+      </c>
+      <c r="G4" s="6">
+        <v>2020</v>
+      </c>
+      <c r="H4" s="10" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B5" s="7" t="s">
         <v>7</v>
       </c>
-      <c r="C4" s="5" t="s">
+      <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D4" s="6">
-        <v>2008</v>
-      </c>
-      <c r="E4" s="6">
-        <v>2009</v>
-      </c>
-      <c r="F4" s="6">
-        <v>2010</v>
-      </c>
-      <c r="G4" s="6">
-        <v>2011</v>
-      </c>
-      <c r="H4" s="6">
-        <v>2012</v>
-      </c>
-      <c r="I4" s="6">
-        <v>2013</v>
-      </c>
-      <c r="J4" s="6">
-        <v>2014</v>
-      </c>
-      <c r="K4" s="6">
-        <v>2015</v>
-      </c>
-      <c r="L4" s="6">
-        <v>2016</v>
-      </c>
-      <c r="M4" s="6">
-        <v>2017</v>
-      </c>
-      <c r="N4" s="6">
-        <v>2018</v>
-      </c>
-    </row>
-    <row r="5" spans="1:14" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7" t="s">
+      <c r="D5" s="8">
+        <v>0.11</v>
+      </c>
+      <c r="E5" s="8">
+        <v>0.1</v>
+      </c>
+      <c r="F5" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="G5" s="8">
+        <v>0.09</v>
+      </c>
+      <c r="H5" s="8">
+        <v>0.08</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="2" t="s">
+        <v>11</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>9</v>
       </c>
-      <c r="B5" s="7" t="s">
-        <v>10</v>
-      </c>
-      <c r="C5" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="D5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="E5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="F5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="I5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="J5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="K5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="L5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="M5" s="8">
-        <v>0.8</v>
-      </c>
-      <c r="N5" s="8">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
+      <c r="C6" s="2" t="s">
         <v>12</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>13</v>
-      </c>
-      <c r="C6" s="2" t="s">
-        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2"/>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
-      <c r="K6" s="2"/>
-      <c r="L6" s="2"/>
-      <c r="M6" s="2"/>
-      <c r="N6" s="2"/>
-    </row>
-    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
       <c r="B7" s="2"/>
       <c r="C7" s="2"/>
       <c r="D7" s="2"/>
       <c r="E7" s="2"/>
-      <c r="F7" s="2"/>
-      <c r="G7" s="2"/>
-      <c r="H7" s="2"/>
-      <c r="I7" s="2"/>
-      <c r="J7" s="2"/>
-      <c r="K7" s="2"/>
-      <c r="L7" s="2"/>
-      <c r="M7" s="2"/>
-      <c r="N7" s="2"/>
-    </row>
-    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="2"/>
       <c r="B8" s="2"/>
       <c r="C8" s="2"/>
       <c r="D8" s="2"/>
       <c r="E8" s="2"/>
-      <c r="F8" s="2"/>
-      <c r="G8" s="2"/>
-      <c r="H8" s="2"/>
-      <c r="I8" s="2"/>
-      <c r="J8" s="2"/>
-      <c r="K8" s="2"/>
-      <c r="L8" s="2"/>
-      <c r="M8" s="2"/>
-      <c r="N8" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/excel_files/9.5.1.xlsx
+++ b/excel_files/9.5.1.xlsx
@@ -1,20 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Лист1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="122211"/>
+  <calcPr calcId="152511"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="15" uniqueCount="15">
   <si>
     <t>(пайыз менен)</t>
   </si>
@@ -43,37 +43,146 @@
     <t>Research and development expenditure as a proportion of GDP</t>
   </si>
   <si>
-    <t>*предварительные данные</t>
+    <r>
+      <t>9.5.1 ИДП га болгон тажрыйбалык-конструктордук жумуштун жана илимий изилдөөнүн чыгымдарынын үлүшү</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>2021*</t>
+    <r>
+      <t>9.5.1  Доля расходов на научно-исследовательские и опытно-конструкторские работы в ВВП</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>*алдын алаа маалыматтар</t>
+    <r>
+      <t>9.5.1 Research and development expenditure as a proportion of GDP</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
   </si>
   <si>
-    <t>*preliminary data</t>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> 2019-жылдан баштап маалыматтар, 2008 жылдагы Улуттук Эсептер Тутумунун эл аралык стандарттарына ылайык эсептелген </t>
+    </r>
   </si>
   <si>
-    <t>9.5.1 ИДП га болгон тажрыйбалык-конструктордук жумуштун жана илимий изилдөөнүн чыгымдарынын үлүшү</t>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve">1 </t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>Данные с 2019 года рассчитаны по международному стандарту Системы Национальных Счетов 2008 года</t>
+    </r>
   </si>
   <si>
-    <t>9.5.1  Доля расходов на научно-исследовательские и опытно-конструкторские работы в ВВП</t>
-  </si>
-  <si>
-    <t>9.5.1 Research and development expenditure as a proportion of GDP</t>
+    <r>
+      <rPr>
+        <i/>
+        <vertAlign val="superscript"/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <i/>
+        <sz val="8"/>
+        <rFont val="Times New Roman"/>
+        <family val="1"/>
+        <charset val="204"/>
+      </rPr>
+      <t xml:space="preserve"> Data from 2019 are calculated according to the international standard of the System of National Accounts 2008</t>
+    </r>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5" x14ac:knownFonts="1">
+  <numFmts count="3">
+    <numFmt numFmtId="164" formatCode="_-* #,##0.00_р_._-;\-* #,##0.00_р_._-;_-* &quot;-&quot;??_р_._-;_-@_-"/>
+    <numFmt numFmtId="165" formatCode="#,##0.0"/>
+    <numFmt numFmtId="166" formatCode="0.0"/>
+  </numFmts>
+  <fonts count="55" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -105,16 +214,639 @@
       <family val="1"/>
       <charset val="204"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="6.15"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="4.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Helv"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Times New Roman CYR"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="63"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="56"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="9"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="60"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="20"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color indexed="23"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="52"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="10"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color indexed="17"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="56"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color indexed="62"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color indexed="62"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Cambria"/>
+      <family val="2"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="10"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <i/>
+      <vertAlign val="superscript"/>
+      <sz val="8"/>
+      <name val="Times New Roman"/>
+      <family val="1"/>
+      <charset val="204"/>
+    </font>
+    <font>
+      <sz val="10"/>
+      <name val="Arial Cyr"/>
+      <family val="2"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="50">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="47"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="45"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="29"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="42"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="26"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="22"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="43"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="49"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="36"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="63"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="62"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="10"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="57"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="54"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="53"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="55"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="3">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -142,41 +874,536 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="hair">
+        <color indexed="64"/>
+      </left>
+      <right style="hair">
+        <color indexed="64"/>
+      </right>
+      <top style="hair">
+        <color indexed="64"/>
+      </top>
+      <bottom style="hair">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="23"/>
+      </left>
+      <right style="thin">
+        <color indexed="23"/>
+      </right>
+      <top style="thin">
+        <color indexed="23"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="23"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="63"/>
+      </left>
+      <right style="thin">
+        <color indexed="63"/>
+      </right>
+      <top style="thin">
+        <color indexed="63"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="30"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="62"/>
+      </top>
+      <bottom style="double">
+        <color indexed="62"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="49"/>
+      </top>
+      <bottom style="double">
+        <color indexed="49"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color indexed="63"/>
+      </left>
+      <right style="double">
+        <color indexed="63"/>
+      </right>
+      <top style="double">
+        <color indexed="63"/>
+      </top>
+      <bottom style="double">
+        <color indexed="63"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="22"/>
+      </left>
+      <right style="thin">
+        <color indexed="22"/>
+      </right>
+      <top style="thin">
+        <color indexed="22"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="22"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color indexed="52"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="110">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="37" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="38" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="35" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="22" fillId="0" borderId="0"/>
+    <xf numFmtId="3" fontId="24" fillId="42" borderId="12">
+      <alignment horizontal="right"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="42" borderId="12" applyNumberFormat="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="3" fontId="24" fillId="0" borderId="12" applyFill="0" applyProtection="0">
+      <alignment horizontal="right"/>
+    </xf>
+    <xf numFmtId="0" fontId="25" fillId="0" borderId="12" applyNumberFormat="0" applyFill="0" applyProtection="0">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="43" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="44" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="45" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="46" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="41" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="40" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="19" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="28" fillId="47" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="5" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="39" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="29" fillId="33" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="6" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="48" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="30" fillId="38" borderId="14" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="6" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="48" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="31" fillId="38" borderId="13" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="45" fillId="0" borderId="16" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="32" fillId="0" borderId="15" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="46" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="33" fillId="0" borderId="17" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="19" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="18" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="47" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="34" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="11" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="21" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="35" fillId="0" borderId="20" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="7" borderId="9" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="36" fillId="49" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="49" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="48" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="44" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="50" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="37" fillId="39" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="23" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="43" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="38" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="39" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="21" fillId="8" borderId="10" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="43" fillId="37" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="40" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="26" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="41" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="27" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="164" fontId="43" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="42" fillId="36" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="27" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="54" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="11">
+  <cellXfs count="16">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
+    </xf>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="166" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="2" fontId="3" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="right" vertical="center"/>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="52" fillId="0" borderId="0" xfId="109" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="110">
+    <cellStyle name="20% - Акцент1 2" xfId="2"/>
+    <cellStyle name="20% - Акцент1 3" xfId="3"/>
+    <cellStyle name="20% - Акцент2 2" xfId="4"/>
+    <cellStyle name="20% - Акцент2 3" xfId="5"/>
+    <cellStyle name="20% - Акцент3 2" xfId="6"/>
+    <cellStyle name="20% - Акцент3 3" xfId="7"/>
+    <cellStyle name="20% - Акцент4 2" xfId="8"/>
+    <cellStyle name="20% - Акцент4 3" xfId="9"/>
+    <cellStyle name="20% - Акцент5 2" xfId="10"/>
+    <cellStyle name="20% - Акцент6 2" xfId="11"/>
+    <cellStyle name="20% - Акцент6 3" xfId="12"/>
+    <cellStyle name="40% - Акцент1 2" xfId="13"/>
+    <cellStyle name="40% - Акцент1 3" xfId="14"/>
+    <cellStyle name="40% - Акцент2 2" xfId="15"/>
+    <cellStyle name="40% - Акцент3 2" xfId="16"/>
+    <cellStyle name="40% - Акцент3 3" xfId="17"/>
+    <cellStyle name="40% - Акцент4 2" xfId="18"/>
+    <cellStyle name="40% - Акцент4 3" xfId="19"/>
+    <cellStyle name="40% - Акцент5 2" xfId="20"/>
+    <cellStyle name="40% - Акцент6 2" xfId="21"/>
+    <cellStyle name="40% - Акцент6 3" xfId="22"/>
+    <cellStyle name="60% - Акцент1 2" xfId="23"/>
+    <cellStyle name="60% - Акцент1 3" xfId="24"/>
+    <cellStyle name="60% - Акцент2 2" xfId="25"/>
+    <cellStyle name="60% - Акцент3 2" xfId="26"/>
+    <cellStyle name="60% - Акцент3 3" xfId="27"/>
+    <cellStyle name="60% - Акцент4 2" xfId="28"/>
+    <cellStyle name="60% - Акцент4 3" xfId="29"/>
+    <cellStyle name="60% - Акцент5 2" xfId="30"/>
+    <cellStyle name="60% - Акцент6 2" xfId="31"/>
+    <cellStyle name="60% - Акцент6 3" xfId="32"/>
+    <cellStyle name="Normal_ADO_TEMPLATE1f" xfId="33"/>
+    <cellStyle name="Normal_GDP1" xfId="109"/>
+    <cellStyle name="s80" xfId="34"/>
+    <cellStyle name="s85" xfId="35"/>
+    <cellStyle name="s94" xfId="36"/>
+    <cellStyle name="s95" xfId="37"/>
+    <cellStyle name="Акцент1 2" xfId="38"/>
+    <cellStyle name="Акцент1 3" xfId="39"/>
+    <cellStyle name="Акцент1 4" xfId="40"/>
+    <cellStyle name="Акцент2 2" xfId="41"/>
+    <cellStyle name="Акцент2 3" xfId="42"/>
+    <cellStyle name="Акцент3 2" xfId="43"/>
+    <cellStyle name="Акцент3 3" xfId="44"/>
+    <cellStyle name="Акцент4 2" xfId="45"/>
+    <cellStyle name="Акцент4 3" xfId="46"/>
+    <cellStyle name="Акцент4 4" xfId="47"/>
+    <cellStyle name="Акцент5 2" xfId="48"/>
+    <cellStyle name="Акцент5 3" xfId="49"/>
+    <cellStyle name="Акцент6 2" xfId="50"/>
+    <cellStyle name="Акцент6 3" xfId="51"/>
+    <cellStyle name="Ввод  2" xfId="52"/>
+    <cellStyle name="Ввод  3" xfId="53"/>
+    <cellStyle name="Ввод  4" xfId="54"/>
+    <cellStyle name="Вывод 2" xfId="55"/>
+    <cellStyle name="Вывод 3" xfId="56"/>
+    <cellStyle name="Вывод 4" xfId="57"/>
+    <cellStyle name="Вычисление 2" xfId="58"/>
+    <cellStyle name="Вычисление 3" xfId="59"/>
+    <cellStyle name="Вычисление 4" xfId="60"/>
+    <cellStyle name="Заголовок 1 2" xfId="61"/>
+    <cellStyle name="Заголовок 1 3" xfId="62"/>
+    <cellStyle name="Заголовок 1 4" xfId="63"/>
+    <cellStyle name="Заголовок 2 2" xfId="64"/>
+    <cellStyle name="Заголовок 2 3" xfId="65"/>
+    <cellStyle name="Заголовок 2 4" xfId="66"/>
+    <cellStyle name="Заголовок 3 2" xfId="67"/>
+    <cellStyle name="Заголовок 3 3" xfId="68"/>
+    <cellStyle name="Заголовок 3 4" xfId="69"/>
+    <cellStyle name="Заголовок 4 2" xfId="70"/>
+    <cellStyle name="Заголовок 4 3" xfId="71"/>
+    <cellStyle name="Заголовок 4 4" xfId="72"/>
+    <cellStyle name="Итог 2" xfId="73"/>
+    <cellStyle name="Итог 3" xfId="74"/>
+    <cellStyle name="Итог 4" xfId="75"/>
+    <cellStyle name="Контрольная ячейка 2" xfId="76"/>
+    <cellStyle name="Контрольная ячейка 3" xfId="77"/>
+    <cellStyle name="Название 2" xfId="78"/>
+    <cellStyle name="Название 3" xfId="79"/>
+    <cellStyle name="Название 4" xfId="80"/>
+    <cellStyle name="Нейтральный 2" xfId="81"/>
+    <cellStyle name="Нейтральный 3" xfId="82"/>
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Обычный 2" xfId="83"/>
+    <cellStyle name="Обычный 2 2" xfId="84"/>
+    <cellStyle name="Обычный 2 2 2" xfId="85"/>
+    <cellStyle name="Обычный 2 3" xfId="86"/>
+    <cellStyle name="Обычный 2 4" xfId="108"/>
+    <cellStyle name="Обычный 3" xfId="87"/>
+    <cellStyle name="Обычный 4" xfId="88"/>
+    <cellStyle name="Обычный 5" xfId="1"/>
+    <cellStyle name="Плохой 2" xfId="89"/>
+    <cellStyle name="Плохой 3" xfId="90"/>
+    <cellStyle name="Пояснение 2" xfId="91"/>
+    <cellStyle name="Пояснение 3" xfId="92"/>
+    <cellStyle name="Примечание 2" xfId="93"/>
+    <cellStyle name="Примечание 2 2" xfId="94"/>
+    <cellStyle name="Примечание 3" xfId="95"/>
+    <cellStyle name="Примечание 4" xfId="96"/>
+    <cellStyle name="Связанная ячейка 2" xfId="97"/>
+    <cellStyle name="Связанная ячейка 3" xfId="98"/>
+    <cellStyle name="Стиль 1" xfId="99"/>
+    <cellStyle name="Текст предупреждения 2" xfId="100"/>
+    <cellStyle name="Текст предупреждения 3" xfId="101"/>
+    <cellStyle name="Финансовый 2" xfId="102"/>
+    <cellStyle name="Финансовый 2 2" xfId="103"/>
+    <cellStyle name="Финансовый 3" xfId="104"/>
+    <cellStyle name="Финансовый 4" xfId="105"/>
+    <cellStyle name="Хороший 2" xfId="106"/>
+    <cellStyle name="Хороший 3" xfId="107"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -478,31 +1705,36 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H8"/>
+  <dimension ref="A1:J13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H6" sqref="H6"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>15</v>
+        <v>11</v>
       </c>
       <c r="D1" s="2"/>
       <c r="E1" s="2"/>
+      <c r="F1" s="2"/>
+      <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -514,8 +1746,10 @@
       </c>
       <c r="D2" s="2"/>
       <c r="E2" s="2"/>
+      <c r="F2" s="2"/>
+      <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -524,8 +1758,10 @@
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
       <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="4"/>
     </row>
-    <row r="4" spans="1:8" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -536,22 +1772,28 @@
         <v>5</v>
       </c>
       <c r="D4" s="6">
+        <v>2015</v>
+      </c>
+      <c r="E4" s="6">
+        <v>2016</v>
+      </c>
+      <c r="F4" s="6">
         <v>2017</v>
       </c>
-      <c r="E4" s="6">
+      <c r="G4" s="6">
         <v>2018</v>
       </c>
-      <c r="F4" s="6">
+      <c r="H4" s="6">
         <v>2019</v>
       </c>
-      <c r="G4" s="6">
+      <c r="I4" s="6">
         <v>2020</v>
       </c>
-      <c r="H4" s="10" t="s">
-        <v>10</v>
+      <c r="J4" s="9">
+        <v>2021</v>
       </c>
     </row>
-    <row r="5" spans="1:8" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -561,50 +1803,73 @@
       <c r="C5" s="7" t="s">
         <v>8</v>
       </c>
-      <c r="D5" s="8">
+      <c r="D5" s="13">
+        <v>0.11851985205675215</v>
+      </c>
+      <c r="E5" s="13">
+        <v>0.11095693500656686</v>
+      </c>
+      <c r="F5" s="8">
         <v>0.11</v>
       </c>
-      <c r="E5" s="8">
+      <c r="G5" s="13">
         <v>0.1</v>
       </c>
-      <c r="F5" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="G5" s="8">
-        <v>0.09</v>
-      </c>
-      <c r="H5" s="8">
-        <v>0.08</v>
+      <c r="H5" s="13">
+        <v>8.4953514841856897E-2</v>
+      </c>
+      <c r="I5" s="13">
+        <v>8.354990224931319E-2</v>
+      </c>
+      <c r="J5" s="13">
+        <v>7.1023892951728049E-2</v>
       </c>
     </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" s="2" t="s">
-        <v>11</v>
-      </c>
-      <c r="B6" s="9" t="s">
-        <v>9</v>
-      </c>
-      <c r="C6" s="2" t="s">
+    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>12</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>13</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>14</v>
       </c>
       <c r="D6" s="2"/>
       <c r="E6" s="2"/>
+      <c r="F6" s="2"/>
+      <c r="G6" s="2"/>
+      <c r="H6" s="10"/>
+      <c r="I6" s="10"/>
+      <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" s="2"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="2"/>
-      <c r="D7" s="2"/>
-      <c r="E7" s="2"/>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D7" s="11"/>
+      <c r="E7" s="11"/>
+      <c r="F7" s="11"/>
+      <c r="G7" s="11"/>
+      <c r="H7" s="11"/>
+      <c r="I7" s="11"/>
+      <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" s="2"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="2"/>
-      <c r="D8" s="2"/>
-      <c r="E8" s="2"/>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H8" s="11"/>
+      <c r="I8" s="11"/>
+      <c r="J8" s="11"/>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="12"/>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G13" s="12"/>
+      <c r="H13" s="11"/>
+      <c r="I13" s="11"/>
+      <c r="J13" s="11"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>
 </worksheet>
 </file>
--- a/excel_files/9.5.1.xlsx
+++ b/excel_files/9.5.1.xlsx
@@ -169,7 +169,7 @@
     <numFmt numFmtId="165" formatCode="#,##0.0"/>
     <numFmt numFmtId="166" formatCode="0.0"/>
   </numFmts>
-  <fonts count="55" x14ac:knownFonts="1">
+  <fonts count="55">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -1705,21 +1705,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J13"/>
+  <dimension ref="A1:K13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H6" sqref="H6"/>
+      <selection activeCell="J12" sqref="J12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
     <col min="1" max="1" width="40.85546875" customWidth="1"/>
     <col min="2" max="2" width="35.5703125" customWidth="1"/>
     <col min="3" max="3" width="34.28515625" customWidth="1"/>
-    <col min="10" max="10" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="4" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:11" ht="43.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1734,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:11">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1749,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1760,8 +1760,9 @@
       <c r="H3" s="4"/>
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
+      <c r="K3" s="4"/>
     </row>
-    <row r="4" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1792,8 +1793,11 @@
       <c r="J4" s="9">
         <v>2021</v>
       </c>
+      <c r="K4" s="9">
+        <v>2022</v>
+      </c>
     </row>
-    <row r="5" spans="1:10" ht="36.75" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" ht="36.75" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1824,8 +1828,11 @@
       <c r="J5" s="13">
         <v>7.1023892951728049E-2</v>
       </c>
+      <c r="K5" s="13">
+        <v>0.11705180708279034</v>
+      </c>
     </row>
-    <row r="6" spans="1:10" ht="36.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:11" ht="36.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1843,7 +1850,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:11">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1852,17 +1859,17 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:11">
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:11">
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:11">
       <c r="G13" s="12"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>

--- a/excel_files/9.5.1.xlsx
+++ b/excel_files/9.5.1.xlsx
@@ -1705,11 +1705,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:K13"/>
+  <dimension ref="A1:L13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J12" sqref="J12"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
@@ -1719,7 +1717,7 @@
     <col min="4" max="11" width="9" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:11" ht="43.5" customHeight="1">
+    <row r="1" spans="1:12" ht="43.5" customHeight="1">
       <c r="A1" s="1" t="s">
         <v>9</v>
       </c>
@@ -1734,7 +1732,7 @@
       <c r="F1" s="2"/>
       <c r="G1" s="2"/>
     </row>
-    <row r="2" spans="1:11">
+    <row r="2" spans="1:12">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -1749,7 +1747,7 @@
       <c r="F2" s="2"/>
       <c r="G2" s="2"/>
     </row>
-    <row r="3" spans="1:11" ht="15.75" thickBot="1">
+    <row r="3" spans="1:12" ht="15.75" thickBot="1">
       <c r="A3" s="4"/>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -1761,8 +1759,9 @@
       <c r="I3" s="4"/>
       <c r="J3" s="4"/>
       <c r="K3" s="4"/>
+      <c r="L3" s="4"/>
     </row>
-    <row r="4" spans="1:11" ht="15.75" thickBot="1">
+    <row r="4" spans="1:12" ht="15.75" thickBot="1">
       <c r="A4" s="5" t="s">
         <v>3</v>
       </c>
@@ -1796,8 +1795,11 @@
       <c r="K4" s="9">
         <v>2022</v>
       </c>
+      <c r="L4" s="9">
+        <v>2023</v>
+      </c>
     </row>
-    <row r="5" spans="1:11" ht="36.75" thickBot="1">
+    <row r="5" spans="1:12" ht="40.5" customHeight="1" thickBot="1">
       <c r="A5" s="7" t="s">
         <v>6</v>
       </c>
@@ -1831,8 +1833,11 @@
       <c r="K5" s="13">
         <v>0.11705180708279034</v>
       </c>
+      <c r="L5" s="13">
+        <v>0.11972285283622097</v>
+      </c>
     </row>
-    <row r="6" spans="1:11" ht="36.75" customHeight="1">
+    <row r="6" spans="1:12" ht="36.75" customHeight="1">
       <c r="A6" s="14" t="s">
         <v>12</v>
       </c>
@@ -1850,7 +1855,7 @@
       <c r="I6" s="10"/>
       <c r="J6" s="10"/>
     </row>
-    <row r="7" spans="1:11">
+    <row r="7" spans="1:12">
       <c r="D7" s="11"/>
       <c r="E7" s="11"/>
       <c r="F7" s="11"/>
@@ -1859,17 +1864,17 @@
       <c r="I7" s="11"/>
       <c r="J7" s="11"/>
     </row>
-    <row r="8" spans="1:11">
+    <row r="8" spans="1:12">
       <c r="H8" s="11"/>
       <c r="I8" s="11"/>
       <c r="J8" s="11"/>
     </row>
-    <row r="10" spans="1:11">
+    <row r="10" spans="1:12">
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
       <c r="F10" s="12"/>
     </row>
-    <row r="13" spans="1:11">
+    <row r="13" spans="1:12">
       <c r="G13" s="12"/>
       <c r="H13" s="11"/>
       <c r="I13" s="11"/>
